--- a/natmiOut/OldD2/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.3787210209421</v>
+        <v>3.672484</v>
       </c>
       <c r="H2">
-        <v>3.3787210209421</v>
+        <v>7.344968</v>
       </c>
       <c r="I2">
-        <v>0.174721852511098</v>
+        <v>0.16941414656804</v>
       </c>
       <c r="J2">
-        <v>0.174721852511098</v>
+        <v>0.139073352017148</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>2.3685117871504</v>
+        <v>0.3097005</v>
       </c>
       <c r="N2">
-        <v>2.3685117871504</v>
+        <v>0.619401</v>
       </c>
       <c r="O2">
-        <v>0.244128145510862</v>
+        <v>0.02974992333587455</v>
       </c>
       <c r="P2">
-        <v>0.244128145510862</v>
+        <v>0.02626282361701589</v>
       </c>
       <c r="Q2">
-        <v>8.002540563594197</v>
+        <v>1.137370131042</v>
       </c>
       <c r="R2">
-        <v>8.002540563594197</v>
+        <v>4.549480524168</v>
       </c>
       <c r="S2">
-        <v>0.04265452183375669</v>
+        <v>0.005040057872411806</v>
       </c>
       <c r="T2">
-        <v>0.04265452183375669</v>
+        <v>0.003652458913853518</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,557 +590,1425 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.3787210209421</v>
+        <v>3.672484</v>
       </c>
       <c r="H3">
-        <v>3.3787210209421</v>
+        <v>7.344968</v>
       </c>
       <c r="I3">
-        <v>0.174721852511098</v>
+        <v>0.16941414656804</v>
       </c>
       <c r="J3">
-        <v>0.174721852511098</v>
+        <v>0.139073352017148</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.33340841624957</v>
+        <v>2.725393</v>
       </c>
       <c r="N3">
-        <v>7.33340841624957</v>
+        <v>8.176179000000001</v>
       </c>
       <c r="O3">
-        <v>0.755871854489138</v>
+        <v>0.2618020726803126</v>
       </c>
       <c r="P3">
-        <v>0.755871854489138</v>
+        <v>0.346672909695253</v>
       </c>
       <c r="Q3">
-        <v>24.77754117113614</v>
+        <v>10.008962186212</v>
       </c>
       <c r="R3">
-        <v>24.77754117113614</v>
+        <v>60.05377311727201</v>
       </c>
       <c r="S3">
-        <v>0.1320673306773412</v>
+        <v>0.04435297471287915</v>
       </c>
       <c r="T3">
-        <v>0.1320673306773412</v>
+        <v>0.04821296360485688</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.12446642932473</v>
+        <v>3.672484</v>
       </c>
       <c r="H4">
-        <v>5.12446642932473</v>
+        <v>7.344968</v>
       </c>
       <c r="I4">
-        <v>0.2649985784895887</v>
+        <v>0.16941414656804</v>
       </c>
       <c r="J4">
-        <v>0.2649985784895887</v>
+        <v>0.139073352017148</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.3685117871504</v>
+        <v>0.03905866666666667</v>
       </c>
       <c r="N4">
-        <v>2.3685117871504</v>
+        <v>0.117176</v>
       </c>
       <c r="O4">
-        <v>0.244128145510862</v>
+        <v>0.003751987287507809</v>
       </c>
       <c r="P4">
-        <v>0.244128145510862</v>
+        <v>0.00496830424902035</v>
       </c>
       <c r="Q4">
-        <v>12.13735914071214</v>
+        <v>0.1434423283946667</v>
       </c>
       <c r="R4">
-        <v>12.13735914071214</v>
+        <v>0.860653970368</v>
       </c>
       <c r="S4">
-        <v>0.0646936115296779</v>
+        <v>0.0006356397242472708</v>
       </c>
       <c r="T4">
-        <v>0.0646936115296779</v>
+        <v>0.0006909587257522993</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.12446642932473</v>
+        <v>3.672484</v>
       </c>
       <c r="H5">
-        <v>5.12446642932473</v>
+        <v>7.344968</v>
       </c>
       <c r="I5">
-        <v>0.2649985784895887</v>
+        <v>0.16941414656804</v>
       </c>
       <c r="J5">
-        <v>0.2649985784895887</v>
+        <v>0.139073352017148</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.33340841624957</v>
+        <v>7.3359755</v>
       </c>
       <c r="N5">
-        <v>7.33340841624957</v>
+        <v>14.671951</v>
       </c>
       <c r="O5">
-        <v>0.755871854489138</v>
+        <v>0.7046960166963049</v>
       </c>
       <c r="P5">
-        <v>0.755871854489138</v>
+        <v>0.6220959624387108</v>
       </c>
       <c r="Q5">
-        <v>37.57980524159836</v>
+        <v>26.941252648142</v>
       </c>
       <c r="R5">
-        <v>37.57980524159836</v>
+        <v>107.765010592568</v>
       </c>
       <c r="S5">
-        <v>0.2003049669599108</v>
+        <v>0.1193854742585018</v>
       </c>
       <c r="T5">
-        <v>0.2003049669599108</v>
+        <v>0.0865169707726853</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.33343027914546</v>
+        <v>5.528631666666667</v>
       </c>
       <c r="H6">
-        <v>1.33343027914546</v>
+        <v>16.585895</v>
       </c>
       <c r="I6">
-        <v>0.06895491137700466</v>
+        <v>0.2550394815872238</v>
       </c>
       <c r="J6">
-        <v>0.06895491137700466</v>
+        <v>0.3140457540256751</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>2.3685117871504</v>
+        <v>0.3097005</v>
       </c>
       <c r="N6">
-        <v>2.3685117871504</v>
+        <v>0.619401</v>
       </c>
       <c r="O6">
-        <v>0.244128145510862</v>
+        <v>0.02974992333587455</v>
       </c>
       <c r="P6">
-        <v>0.244128145510862</v>
+        <v>0.02626282361701589</v>
       </c>
       <c r="Q6">
-        <v>3.15824533349927</v>
+        <v>1.7122199914825</v>
       </c>
       <c r="R6">
-        <v>3.15824533349927</v>
+        <v>10.273319948895</v>
       </c>
       <c r="S6">
-        <v>0.01683383463833399</v>
+        <v>0.007587405024841098</v>
       </c>
       <c r="T6">
-        <v>0.01683383463833399</v>
+        <v>0.008247728245649063</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.33343027914546</v>
+        <v>5.528631666666667</v>
       </c>
       <c r="H7">
-        <v>1.33343027914546</v>
+        <v>16.585895</v>
       </c>
       <c r="I7">
-        <v>0.06895491137700466</v>
+        <v>0.2550394815872238</v>
       </c>
       <c r="J7">
-        <v>0.06895491137700466</v>
+        <v>0.3140457540256751</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.33340841624957</v>
+        <v>2.725393</v>
       </c>
       <c r="N7">
-        <v>7.33340841624957</v>
+        <v>8.176179000000001</v>
       </c>
       <c r="O7">
-        <v>0.755871854489138</v>
+        <v>0.2618020726803126</v>
       </c>
       <c r="P7">
-        <v>0.755871854489138</v>
+        <v>0.346672909695253</v>
       </c>
       <c r="Q7">
-        <v>9.77858883156733</v>
+        <v>15.06769404391167</v>
       </c>
       <c r="R7">
-        <v>9.77858883156733</v>
+        <v>135.609246395205</v>
       </c>
       <c r="S7">
-        <v>0.05212107673867067</v>
+        <v>0.06676986489484762</v>
       </c>
       <c r="T7">
-        <v>0.05212107673867067</v>
+        <v>0.1088711553255205</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.22339286950985</v>
+        <v>5.528631666666667</v>
       </c>
       <c r="H8">
-        <v>1.22339286950985</v>
+        <v>16.585895</v>
       </c>
       <c r="I8">
-        <v>0.06326461024296919</v>
+        <v>0.2550394815872238</v>
       </c>
       <c r="J8">
-        <v>0.06326461024296919</v>
+        <v>0.3140457540256751</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.3685117871504</v>
+        <v>0.03905866666666667</v>
       </c>
       <c r="N8">
-        <v>2.3685117871504</v>
+        <v>0.117176</v>
       </c>
       <c r="O8">
-        <v>0.244128145510862</v>
+        <v>0.003751987287507809</v>
       </c>
       <c r="P8">
-        <v>0.244128145510862</v>
+        <v>0.00496830424902035</v>
       </c>
       <c r="Q8">
-        <v>2.89762043174983</v>
+        <v>0.2159409813911111</v>
       </c>
       <c r="R8">
-        <v>2.89762043174983</v>
+        <v>1.94346883252</v>
       </c>
       <c r="S8">
-        <v>0.01544467197508355</v>
+        <v>0.0009569048927278457</v>
       </c>
       <c r="T8">
-        <v>0.01544467197508355</v>
+        <v>0.001560274854112561</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.22339286950985</v>
+        <v>5.528631666666667</v>
       </c>
       <c r="H9">
-        <v>1.22339286950985</v>
+        <v>16.585895</v>
       </c>
       <c r="I9">
-        <v>0.06326461024296919</v>
+        <v>0.2550394815872238</v>
       </c>
       <c r="J9">
-        <v>0.06326461024296919</v>
+        <v>0.3140457540256751</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.33340841624957</v>
+        <v>7.3359755</v>
       </c>
       <c r="N9">
-        <v>7.33340841624957</v>
+        <v>14.671951</v>
       </c>
       <c r="O9">
-        <v>0.755871854489138</v>
+        <v>0.7046960166963049</v>
       </c>
       <c r="P9">
-        <v>0.755871854489138</v>
+        <v>0.6220959624387108</v>
       </c>
       <c r="Q9">
-        <v>8.971639565643246</v>
+        <v>40.55790645519083</v>
       </c>
       <c r="R9">
-        <v>8.971639565643246</v>
+        <v>243.347438731145</v>
       </c>
       <c r="S9">
-        <v>0.04781993826788563</v>
+        <v>0.1797253067748072</v>
       </c>
       <c r="T9">
-        <v>0.04781993826788563</v>
+        <v>0.195366595600393</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>8.277702299511621</v>
+        <v>1.120594</v>
       </c>
       <c r="H10">
-        <v>8.277702299511621</v>
+        <v>3.361782</v>
       </c>
       <c r="I10">
-        <v>0.4280600473793395</v>
+        <v>0.05169375173840546</v>
       </c>
       <c r="J10">
-        <v>0.4280600473793395</v>
+        <v>0.06365368664518509</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>2.3685117871504</v>
+        <v>0.3097005</v>
       </c>
       <c r="N10">
-        <v>2.3685117871504</v>
+        <v>0.619401</v>
       </c>
       <c r="O10">
-        <v>0.244128145510862</v>
+        <v>0.02974992333587455</v>
       </c>
       <c r="P10">
-        <v>0.244128145510862</v>
+        <v>0.02626282361701589</v>
       </c>
       <c r="Q10">
-        <v>19.60583546691524</v>
+        <v>0.3470485220969999</v>
       </c>
       <c r="R10">
-        <v>19.60583546691524</v>
+        <v>2.082291132582</v>
       </c>
       <c r="S10">
-        <v>0.1045015055340099</v>
+        <v>0.001537885151161294</v>
       </c>
       <c r="T10">
-        <v>0.1045015055340099</v>
+        <v>0.001671725544935296</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>1.120594</v>
+      </c>
+      <c r="H11">
+        <v>3.361782</v>
+      </c>
+      <c r="I11">
+        <v>0.05169375173840546</v>
+      </c>
+      <c r="J11">
+        <v>0.06365368664518509</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.725393</v>
+      </c>
+      <c r="N11">
+        <v>8.176179000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.2618020726803126</v>
+      </c>
+      <c r="P11">
+        <v>0.346672909695253</v>
+      </c>
+      <c r="Q11">
+        <v>3.054059043442</v>
+      </c>
+      <c r="R11">
+        <v>27.486531390978</v>
+      </c>
+      <c r="S11">
+        <v>0.01353353134973606</v>
+      </c>
+      <c r="T11">
+        <v>0.02206700876211618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>1.120594</v>
+      </c>
+      <c r="H12">
+        <v>3.361782</v>
+      </c>
+      <c r="I12">
+        <v>0.05169375173840546</v>
+      </c>
+      <c r="J12">
+        <v>0.06365368664518509</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.03905866666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.117176</v>
+      </c>
+      <c r="O12">
+        <v>0.003751987287507809</v>
+      </c>
+      <c r="P12">
+        <v>0.00496830424902035</v>
+      </c>
+      <c r="Q12">
+        <v>0.04376890751466666</v>
+      </c>
+      <c r="R12">
+        <v>0.393920167632</v>
+      </c>
+      <c r="S12">
+        <v>0.000193954299366082</v>
+      </c>
+      <c r="T12">
+        <v>0.000316250881825083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.120594</v>
+      </c>
+      <c r="H13">
+        <v>3.361782</v>
+      </c>
+      <c r="I13">
+        <v>0.05169375173840546</v>
+      </c>
+      <c r="J13">
+        <v>0.06365368664518509</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.3359755</v>
+      </c>
+      <c r="N13">
+        <v>14.671951</v>
+      </c>
+      <c r="O13">
+        <v>0.7046960166963049</v>
+      </c>
+      <c r="P13">
+        <v>0.6220959624387108</v>
+      </c>
+      <c r="Q13">
+        <v>8.220650129447</v>
+      </c>
+      <c r="R13">
+        <v>49.323900776682</v>
+      </c>
+      <c r="S13">
+        <v>0.03642838093814201</v>
+      </c>
+      <c r="T13">
+        <v>0.03959870145630853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.49222</v>
+      </c>
+      <c r="H14">
+        <v>4.47666</v>
+      </c>
+      <c r="I14">
+        <v>0.0688371080151093</v>
+      </c>
+      <c r="J14">
+        <v>0.08476335254845029</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.3097005</v>
+      </c>
+      <c r="N14">
+        <v>0.619401</v>
+      </c>
+      <c r="O14">
+        <v>0.02974992333587455</v>
+      </c>
+      <c r="P14">
+        <v>0.02626282361701589</v>
+      </c>
+      <c r="Q14">
+        <v>0.4621412801099999</v>
+      </c>
+      <c r="R14">
+        <v>2.77284768066</v>
+      </c>
+      <c r="S14">
+        <v>0.002047898686112817</v>
+      </c>
+      <c r="T14">
+        <v>0.002226124977166884</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.49222</v>
+      </c>
+      <c r="H15">
+        <v>4.47666</v>
+      </c>
+      <c r="I15">
+        <v>0.0688371080151093</v>
+      </c>
+      <c r="J15">
+        <v>0.08476335254845029</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.725393</v>
+      </c>
+      <c r="N15">
+        <v>8.176179000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.2618020726803126</v>
+      </c>
+      <c r="P15">
+        <v>0.346672909695253</v>
+      </c>
+      <c r="Q15">
+        <v>4.06688594246</v>
+      </c>
+      <c r="R15">
+        <v>36.60197348214</v>
+      </c>
+      <c r="S15">
+        <v>0.01802169755567418</v>
+      </c>
+      <c r="T15">
+        <v>0.0293851580634958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>8.277702299511621</v>
-      </c>
-      <c r="H11">
-        <v>8.277702299511621</v>
-      </c>
-      <c r="I11">
-        <v>0.4280600473793395</v>
-      </c>
-      <c r="J11">
-        <v>0.4280600473793395</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>7.33340841624957</v>
-      </c>
-      <c r="N11">
-        <v>7.33340841624957</v>
-      </c>
-      <c r="O11">
-        <v>0.755871854489138</v>
-      </c>
-      <c r="P11">
-        <v>0.755871854489138</v>
-      </c>
-      <c r="Q11">
-        <v>60.70377171044694</v>
-      </c>
-      <c r="R11">
-        <v>60.70377171044694</v>
-      </c>
-      <c r="S11">
-        <v>0.3235585418453296</v>
-      </c>
-      <c r="T11">
-        <v>0.3235585418453296</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.49222</v>
+      </c>
+      <c r="H16">
+        <v>4.47666</v>
+      </c>
+      <c r="I16">
+        <v>0.0688371080151093</v>
+      </c>
+      <c r="J16">
+        <v>0.08476335254845029</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03905866666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.117176</v>
+      </c>
+      <c r="O16">
+        <v>0.003751987287507809</v>
+      </c>
+      <c r="P16">
+        <v>0.00496830424902035</v>
+      </c>
+      <c r="Q16">
+        <v>0.05828412357333333</v>
+      </c>
+      <c r="R16">
+        <v>0.52455711216</v>
+      </c>
+      <c r="S16">
+        <v>0.000258275954181492</v>
+      </c>
+      <c r="T16">
+        <v>0.0004211301246276755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.49222</v>
+      </c>
+      <c r="H17">
+        <v>4.47666</v>
+      </c>
+      <c r="I17">
+        <v>0.0688371080151093</v>
+      </c>
+      <c r="J17">
+        <v>0.08476335254845029</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.3359755</v>
+      </c>
+      <c r="N17">
+        <v>14.671951</v>
+      </c>
+      <c r="O17">
+        <v>0.7046960166963049</v>
+      </c>
+      <c r="P17">
+        <v>0.6220959624387108</v>
+      </c>
+      <c r="Q17">
+        <v>10.94688936061</v>
+      </c>
+      <c r="R17">
+        <v>65.68133616365999</v>
+      </c>
+      <c r="S17">
+        <v>0.0485092358191408</v>
+      </c>
+      <c r="T17">
+        <v>0.05273093938315993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.317076</v>
+      </c>
+      <c r="H18">
+        <v>3.951228</v>
+      </c>
+      <c r="I18">
+        <v>0.06075759799232559</v>
+      </c>
+      <c r="J18">
+        <v>0.07481455637982516</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.3097005</v>
+      </c>
+      <c r="N18">
+        <v>0.619401</v>
+      </c>
+      <c r="O18">
+        <v>0.02974992333587455</v>
+      </c>
+      <c r="P18">
+        <v>0.02626282361701589</v>
+      </c>
+      <c r="Q18">
+        <v>0.407899095738</v>
+      </c>
+      <c r="R18">
+        <v>2.447394574428</v>
+      </c>
+      <c r="S18">
+        <v>0.001807533882343572</v>
+      </c>
+      <c r="T18">
+        <v>0.001964841498188639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.317076</v>
+      </c>
+      <c r="H19">
+        <v>3.951228</v>
+      </c>
+      <c r="I19">
+        <v>0.06075759799232559</v>
+      </c>
+      <c r="J19">
+        <v>0.07481455637982516</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.725393</v>
+      </c>
+      <c r="N19">
+        <v>8.176179000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.2618020726803126</v>
+      </c>
+      <c r="P19">
+        <v>0.346672909695253</v>
+      </c>
+      <c r="Q19">
+        <v>3.589549710868</v>
+      </c>
+      <c r="R19">
+        <v>32.30594739781201</v>
+      </c>
+      <c r="S19">
+        <v>0.01590646508546804</v>
+      </c>
+      <c r="T19">
+        <v>0.02593617994775354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.317076</v>
+      </c>
+      <c r="H20">
+        <v>3.951228</v>
+      </c>
+      <c r="I20">
+        <v>0.06075759799232559</v>
+      </c>
+      <c r="J20">
+        <v>0.07481455637982516</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.03905866666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.117176</v>
+      </c>
+      <c r="O20">
+        <v>0.003751987287507809</v>
+      </c>
+      <c r="P20">
+        <v>0.00496830424902035</v>
+      </c>
+      <c r="Q20">
+        <v>0.05144323245866666</v>
+      </c>
+      <c r="R20">
+        <v>0.462989092128</v>
+      </c>
+      <c r="S20">
+        <v>0.0002279617352867156</v>
+      </c>
+      <c r="T20">
+        <v>0.0003717014783504579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.317076</v>
+      </c>
+      <c r="H21">
+        <v>3.951228</v>
+      </c>
+      <c r="I21">
+        <v>0.06075759799232559</v>
+      </c>
+      <c r="J21">
+        <v>0.07481455637982516</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.3359755</v>
+      </c>
+      <c r="N21">
+        <v>14.671951</v>
+      </c>
+      <c r="O21">
+        <v>0.7046960166963049</v>
+      </c>
+      <c r="P21">
+        <v>0.6220959624387108</v>
+      </c>
+      <c r="Q21">
+        <v>9.662037267637999</v>
+      </c>
+      <c r="R21">
+        <v>57.972223605828</v>
+      </c>
+      <c r="S21">
+        <v>0.04281563728922726</v>
+      </c>
+      <c r="T21">
+        <v>0.04654183345553253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.5465465</v>
+      </c>
+      <c r="H22">
+        <v>17.093093</v>
+      </c>
+      <c r="I22">
+        <v>0.3942579140988959</v>
+      </c>
+      <c r="J22">
+        <v>0.3236492983837164</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.3097005</v>
+      </c>
+      <c r="N22">
+        <v>0.619401</v>
+      </c>
+      <c r="O22">
+        <v>0.02974992333587455</v>
+      </c>
+      <c r="P22">
+        <v>0.02626282361701589</v>
+      </c>
+      <c r="Q22">
+        <v>2.64686972432325</v>
+      </c>
+      <c r="R22">
+        <v>10.587478897293</v>
+      </c>
+      <c r="S22">
+        <v>0.01172914271900397</v>
+      </c>
+      <c r="T22">
+        <v>0.008499944437222488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.5465465</v>
+      </c>
+      <c r="H23">
+        <v>17.093093</v>
+      </c>
+      <c r="I23">
+        <v>0.3942579140988959</v>
+      </c>
+      <c r="J23">
+        <v>0.3236492983837164</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.725393</v>
+      </c>
+      <c r="N23">
+        <v>8.176179000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.2618020726803126</v>
+      </c>
+      <c r="P23">
+        <v>0.346672909695253</v>
+      </c>
+      <c r="Q23">
+        <v>23.2926980052745</v>
+      </c>
+      <c r="R23">
+        <v>139.756188031647</v>
+      </c>
+      <c r="S23">
+        <v>0.1032175390817076</v>
+      </c>
+      <c r="T23">
+        <v>0.1122004439915101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.5465465</v>
+      </c>
+      <c r="H24">
+        <v>17.093093</v>
+      </c>
+      <c r="I24">
+        <v>0.3942579140988959</v>
+      </c>
+      <c r="J24">
+        <v>0.3236492983837164</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.03905866666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.117176</v>
+      </c>
+      <c r="O24">
+        <v>0.003751987287507809</v>
+      </c>
+      <c r="P24">
+        <v>0.00496830424902035</v>
+      </c>
+      <c r="Q24">
+        <v>0.3338167108946666</v>
+      </c>
+      <c r="R24">
+        <v>2.002900265368</v>
+      </c>
+      <c r="S24">
+        <v>0.001479250681698403</v>
+      </c>
+      <c r="T24">
+        <v>0.001607988184352273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.5465465</v>
+      </c>
+      <c r="H25">
+        <v>17.093093</v>
+      </c>
+      <c r="I25">
+        <v>0.3942579140988959</v>
+      </c>
+      <c r="J25">
+        <v>0.3236492983837164</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.3359755</v>
+      </c>
+      <c r="N25">
+        <v>14.671951</v>
+      </c>
+      <c r="O25">
+        <v>0.7046960166963049</v>
+      </c>
+      <c r="P25">
+        <v>0.6220959624387108</v>
+      </c>
+      <c r="Q25">
+        <v>62.69725573361075</v>
+      </c>
+      <c r="R25">
+        <v>250.789022934443</v>
+      </c>
+      <c r="S25">
+        <v>0.2778319816164859</v>
+      </c>
+      <c r="T25">
+        <v>0.2013409217706315</v>
       </c>
     </row>
   </sheetData>
